--- a/i_codebooks/D4_monthly_prevalence_vaccination_cohort.xlsx
+++ b/i_codebooks/D4_monthly_prevalence_vaccination_cohort.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20408"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\ROC18\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosgin2\Documents\ROC18\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817ED165-B04B-4FCF-815A-24404703E67A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>medatata_name</t>
   </si>
@@ -121,16 +120,10 @@
     <t>IPW_month</t>
   </si>
   <si>
-    <t>q</t>
-  </si>
-  <si>
     <t>itself</t>
   </si>
   <si>
     <t>indicator, cohort and month</t>
-  </si>
-  <si>
-    <t>for each study cohort and each indicator: monthly prevalence and estimated monthly prevalence with inverse-probability weighting (Braeye et al, Vaccine. 2020)</t>
   </si>
   <si>
     <t>type_of_cohort</t>
@@ -160,71 +153,21 @@
     <t>number of persons in the cohort</t>
   </si>
   <si>
-    <t>indicator cohort_type cohort_label month</t>
-  </si>
-  <si>
     <t>number of persons in the cohort at the current month</t>
   </si>
   <si>
-    <t>NFUP_moth/NFUP</t>
-  </si>
-  <si>
-    <t>proportion of the persons in the cohort who are still in fup at current month</t>
-  </si>
-  <si>
     <t>number of persons in the follow up at current month and that have received a pertinent vaccine at current month</t>
   </si>
   <si>
-    <t>Vacc_observed_month/FU_proportion_month</t>
-  </si>
-  <si>
-    <t>Vacc_IPW_1 + Vacc_IPW_2 + …. + Vacc_IPW_month</t>
-  </si>
-  <si>
-    <t>estimated number of persons in the cohort who have the vaccine at the current month</t>
-  </si>
-  <si>
-    <t>estimated number of persons in the cohort who have the vaccine before or during the current month</t>
-  </si>
-  <si>
     <t>Vacc_observed_before_month</t>
   </si>
   <si>
     <t>number of persons in the follow up at current month and that have received a pertinent vaccine at current month or before</t>
   </si>
   <si>
-    <t>PP_month</t>
-  </si>
-  <si>
     <t>depends on type_of_cohort, for birth cohorts and for adolescents the label is the year of birth, for seasonal cohorts it is the year where the season is located</t>
   </si>
   <si>
-    <t>ageband</t>
-  </si>
-  <si>
-    <t>only for covid</t>
-  </si>
-  <si>
-    <t>birth12 = cohort recruited at birth, followed for 12 months
-birth15 = cohort recruited at birth, followed for 15 months
-birth24 = cohort recruited at birth, followed for 24 months
-adolescence  = cohort recruited at age 9 and followed up until age 16 
-seasonal = cohort recruited at the beginning of a season and followed until the end of the season
-covid_vacc _ starting with december 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 years
-1 years
-2-4 years
-5-11
-12-17
-18-29
-30-34
-…
-85+
-</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -232,9 +175,6 @@
   </si>
   <si>
     <t>month since start of fup in the cohort</t>
-  </si>
-  <si>
-    <t>(Vacc_observed_before_month + Vacc_observed_month)/NFUP_month</t>
   </si>
   <si>
     <r>
@@ -251,11 +191,31 @@
       <t>cohorts</t>
     </r>
   </si>
+  <si>
+    <t>for each study cohort and each indicator: persons in the cohort at entry and monthly, monthly prevalence of use of vaccine, and cumulative prevalence of use of vaccine</t>
+  </si>
+  <si>
+    <t>NxUoO</t>
+  </si>
+  <si>
+    <t>month_fup</t>
+  </si>
+  <si>
+    <t>birth12 = cohort recruited at birth, followed for 12 months
+birth15 = cohort recruited at birth, followed for 15 months
+birth24 = cohort recruited at birth, followed for 24 months
+adolescence  = cohort recruited at age 9 and followed up until age 16 
+seasonal = cohort recruited at the beginning of a season and followed until the end of the season
+covid_vacc = birthyear</t>
+  </si>
+  <si>
+    <t>indicator cohort_type cohort_label month_fup</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -488,7 +448,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -799,20 +759,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="144.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="144.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -820,67 +780,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="54" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="36" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -888,28 +856,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="65.28515625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="11" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="11"/>
+    <col min="5" max="5" width="29.88671875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="50.44140625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -944,133 +912,87 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="265.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="283.5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1078,19 +1000,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="54" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -1107,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1117,17 +1039,17 @@
       <selection pane="bottomRight" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1162,27 +1084,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dac44d48b4406d5c320fe911a853389">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183e839aabd2ef2c305af4a754f6d8de" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
@@ -1427,32 +1328,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41568E44-26BF-4A8E-860D-94FA11416FA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1469,4 +1366,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/i_codebooks/D4_monthly_prevalence_vaccination_cohort.xlsx
+++ b/i_codebooks/D4_monthly_prevalence_vaccination_cohort.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>medatata_name</t>
   </si>
@@ -175,6 +175,26 @@
   </si>
   <si>
     <t>month since start of fup in the cohort</t>
+  </si>
+  <si>
+    <t>for each study cohort and each indicator: persons in the cohort at entry and monthly, monthly prevalence of use of vaccine, and cumulative prevalence of use of vaccine</t>
+  </si>
+  <si>
+    <t>NxUoO</t>
+  </si>
+  <si>
+    <t>month_fup</t>
+  </si>
+  <si>
+    <t>birth12 = cohort recruited at birth, followed for 12 months
+birth15 = cohort recruited at birth, followed for 15 months
+birth24 = cohort recruited at birth, followed for 24 months
+adolescence  = cohort recruited at age 9 and followed up until age 16 
+seasonal = cohort recruited at the beginning of a season and followed until the end of the season
+covid_vacc = birthyear</t>
+  </si>
+  <si>
+    <t>indicator cohort_type cohort_label month_fup</t>
   </si>
   <si>
     <r>
@@ -188,35 +208,57 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>cohorts</t>
+      <t>cohort</t>
     </r>
   </si>
   <si>
-    <t>for each study cohort and each indicator: persons in the cohort at entry and monthly, monthly prevalence of use of vaccine, and cumulative prevalence of use of vaccine</t>
-  </si>
-  <si>
-    <t>NxUoO</t>
-  </si>
-  <si>
-    <t>month_fup</t>
-  </si>
-  <si>
-    <t>birth12 = cohort recruited at birth, followed for 12 months
-birth15 = cohort recruited at birth, followed for 15 months
-birth24 = cohort recruited at birth, followed for 24 months
-adolescence  = cohort recruited at age 9 and followed up until age 16 
-seasonal = cohort recruited at the beginning of a season and followed until the end of the season
-covid_vacc = birthyear</t>
-  </si>
-  <si>
-    <t>indicator cohort_type cohort_label month_fup</t>
+    <t>birth12</t>
+  </si>
+  <si>
+    <t>list_of_cohorts_for_coverage</t>
+  </si>
+  <si>
+    <t>birth24</t>
+  </si>
+  <si>
+    <t>birth15</t>
+  </si>
+  <si>
+    <t>adolescence</t>
+  </si>
+  <si>
+    <t>covid_vacc</t>
+  </si>
+  <si>
+    <t>seasonal2017</t>
+  </si>
+  <si>
+    <t>seasonal2018</t>
+  </si>
+  <si>
+    <t>seasonal2019</t>
+  </si>
+  <si>
+    <t>seasonal2020</t>
+  </si>
+  <si>
+    <t>seasonal2021</t>
+  </si>
+  <si>
+    <t>seasonal2022</t>
+  </si>
+  <si>
+    <t>seasonal2023</t>
+  </si>
+  <si>
+    <t>step where the parameter in the script is assigned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +308,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -398,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -446,6 +496,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -762,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.35">
@@ -793,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
@@ -822,7 +873,7 @@
     </row>
     <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -833,7 +884,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
@@ -841,7 +892,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
@@ -931,7 +982,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
@@ -944,7 +995,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>47</v>
@@ -1001,18 +1052,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -1021,6 +1074,141 @@
       </c>
       <c r="C1" s="15" t="s">
         <v>22</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1084,6 +1272,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dac44d48b4406d5c320fe911a853389">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183e839aabd2ef2c305af4a754f6d8de" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
@@ -1328,28 +1537,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41568E44-26BF-4A8E-860D-94FA11416FA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1366,29 +1579,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>